--- a/forCSV/rezult_change.xlsx
+++ b/forCSV/rezult_change.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-25</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -590,11 +590,11 @@
         <v>200</v>
       </c>
       <c r="D7" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>+0.0%</t>
+          <t>+5.0%</t>
         </is>
       </c>
     </row>
@@ -613,11 +613,11 @@
         <v>160</v>
       </c>
       <c r="D8" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>+0.0%</t>
+          <t>+6.25%</t>
         </is>
       </c>
     </row>
@@ -636,11 +636,11 @@
         <v>230</v>
       </c>
       <c r="D9" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>+0.0%</t>
+          <t>+4.35%</t>
         </is>
       </c>
     </row>
@@ -659,11 +659,11 @@
         <v>200</v>
       </c>
       <c r="D10" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+0.0%</t>
+          <t>+5.0%</t>
         </is>
       </c>
     </row>
@@ -682,11 +682,11 @@
         <v>230</v>
       </c>
       <c r="D11" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>+0.0%</t>
+          <t>+4.35%</t>
         </is>
       </c>
     </row>
@@ -705,11 +705,11 @@
         <v>200</v>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>+0.0%</t>
+          <t>+5.0%</t>
         </is>
       </c>
     </row>
@@ -935,11 +935,11 @@
         <v>230</v>
       </c>
       <c r="D22" t="n">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>+0.0%</t>
+          <t>+10.87%</t>
         </is>
       </c>
     </row>
@@ -958,11 +958,11 @@
         <v>230</v>
       </c>
       <c r="D23" t="n">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>+0.0%</t>
+          <t>+10.87%</t>
         </is>
       </c>
     </row>
@@ -978,14 +978,14 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D24" t="n">
         <v>285</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>+0.0%</t>
+          <t>+5.56%</t>
         </is>
       </c>
     </row>
@@ -1001,14 +1001,14 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D25" t="n">
         <v>228</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+0.0%</t>
+          <t>+5.56%</t>
         </is>
       </c>
     </row>
